--- a/Team-Data/2013-14/12-1-2013-14.xlsx
+++ b/Team-Data/2013-14/12-1-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>-0.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>22</v>
@@ -765,19 +832,19 @@
         <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
       </c>
       <c r="AM2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN2" t="n">
         <v>16</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP2" t="n">
         <v>13</v>
@@ -795,19 +862,19 @@
         <v>28</v>
       </c>
       <c r="AU2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV2" t="n">
         <v>14</v>
       </c>
       <c r="AW2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY2" t="n">
         <v>8</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -816,7 +883,7 @@
         <v>18</v>
       </c>
       <c r="BB2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -929,10 +996,10 @@
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
         <v>23</v>
@@ -941,7 +1008,7 @@
         <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
@@ -950,7 +1017,7 @@
         <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
         <v>26</v>
@@ -965,10 +1032,10 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS3" t="n">
         <v>17</v>
@@ -983,13 +1050,13 @@
         <v>24</v>
       </c>
       <c r="AW3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-6.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG4" t="n">
         <v>25</v>
@@ -1129,7 +1196,7 @@
         <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1141,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP4" t="n">
         <v>8</v>
@@ -1150,25 +1217,25 @@
         <v>15</v>
       </c>
       <c r="AR4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
         <v>15</v>
       </c>
       <c r="AT4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU4" t="n">
         <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
         <v>6</v>
@@ -1177,7 +1244,7 @@
         <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.444</v>
+        <v>0.471</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="J5" t="n">
-        <v>79.3</v>
+        <v>79.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
       <c r="L5" t="n">
         <v>4.6</v>
@@ -1242,64 +1309,64 @@
         <v>15.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.301</v>
+        <v>0.304</v>
       </c>
       <c r="O5" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="P5" t="n">
         <v>28</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="S5" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T5" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U5" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="V5" t="n">
         <v>14.4</v>
       </c>
       <c r="W5" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
         <v>20.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.2</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
         <v>22</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1317,28 +1384,28 @@
         <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN5" t="n">
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ5" t="n">
         <v>29</v>
       </c>
       <c r="AR5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS5" t="n">
         <v>16</v>
       </c>
       <c r="AT5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU5" t="n">
         <v>28</v>
@@ -1350,16 +1417,16 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>9</v>
       </c>
-      <c r="AY5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>8</v>
-      </c>
       <c r="BA5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
@@ -1484,7 +1551,7 @@
         <v>18</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1508,7 +1575,7 @@
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>5</v>
@@ -1520,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="n">
         <v>16</v>
@@ -1538,16 +1605,16 @@
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
         <v>27</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
         <v>25</v>
@@ -1681,7 +1748,7 @@
         <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="n">
         <v>17</v>
@@ -1702,7 +1769,7 @@
         <v>19</v>
       </c>
       <c r="AT7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="n">
         <v>27</v>
@@ -1714,10 +1781,10 @@
         <v>11</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
         <v>15</v>
@@ -1726,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC7" t="n">
         <v>28</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1854,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
         <v>7</v>
@@ -1866,13 +1933,13 @@
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -1887,16 +1954,16 @@
         <v>23</v>
       </c>
       <c r="AU8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>16</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY8" t="n">
         <v>5</v>
@@ -1908,7 +1975,7 @@
         <v>23</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC8" t="n">
         <v>13</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -1940,67 +2007,67 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>39.1</v>
+        <v>38.7</v>
       </c>
       <c r="J9" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.456</v>
+        <v>0.453</v>
       </c>
       <c r="L9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M9" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.385</v>
+        <v>0.382</v>
       </c>
       <c r="O9" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.71</v>
+        <v>0.708</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S9" t="n">
         <v>33.5</v>
       </c>
       <c r="T9" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="V9" t="n">
         <v>14.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X9" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y9" t="n">
         <v>5.5</v>
@@ -2009,22 +2076,22 @@
         <v>22.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.9</v>
+        <v>104.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF9" t="n">
         <v>8</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>7</v>
       </c>
       <c r="AG9" t="n">
         <v>8</v>
@@ -2033,22 +2100,22 @@
         <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM9" t="n">
         <v>15</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2060,25 +2127,25 @@
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS9" t="n">
         <v>8</v>
       </c>
       <c r="AT9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
         <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>20</v>
@@ -2090,10 +2157,10 @@
         <v>6</v>
       </c>
       <c r="BB9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -2122,121 +2189,121 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>0.412</v>
+        <v>0.375</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J10" t="n">
-        <v>84.59999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K10" t="n">
         <v>0.453</v>
       </c>
       <c r="L10" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.294</v>
+        <v>0.288</v>
       </c>
       <c r="O10" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="P10" t="n">
-        <v>25.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.661</v>
+        <v>0.668</v>
       </c>
       <c r="R10" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="S10" t="n">
-        <v>29.6</v>
+        <v>28.9</v>
       </c>
       <c r="T10" t="n">
-        <v>43.4</v>
+        <v>42.5</v>
       </c>
       <c r="U10" t="n">
-        <v>20.5</v>
+        <v>20.1</v>
       </c>
       <c r="V10" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="X10" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Z10" t="n">
         <v>20.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.2</v>
+        <v>98.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.1</v>
+        <v>-2.1</v>
       </c>
       <c r="AD10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK10" t="n">
         <v>12</v>
       </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>14</v>
-      </c>
       <c r="AL10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2245,37 +2312,37 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU10" t="n">
         <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
         <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ10" t="n">
         <v>13</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.556</v>
+        <v>0.529</v>
       </c>
       <c r="H11" t="n">
         <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J11" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.471</v>
+        <v>0.469</v>
       </c>
       <c r="L11" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.439</v>
+        <v>0.428</v>
       </c>
       <c r="O11" t="n">
         <v>15.9</v>
@@ -2343,61 +2410,61 @@
         <v>22.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.715</v>
+        <v>0.714</v>
       </c>
       <c r="R11" t="n">
         <v>9.5</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>35.1</v>
       </c>
       <c r="T11" t="n">
-        <v>43.8</v>
+        <v>44.5</v>
       </c>
       <c r="U11" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V11" t="n">
         <v>17.4</v>
       </c>
       <c r="W11" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="X11" t="n">
         <v>5.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>102.9</v>
+        <v>102.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
       </c>
       <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
         <v>9</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AI11" t="n">
         <v>10</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9</v>
       </c>
       <c r="AJ11" t="n">
         <v>18</v>
@@ -2418,7 +2485,7 @@
         <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
         <v>24</v>
@@ -2430,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
@@ -2439,13 +2506,13 @@
         <v>28</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX11" t="n">
         <v>7</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>6.7</v>
       </c>
       <c r="AD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE12" t="n">
         <v>3</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2597,19 +2664,19 @@
         <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
@@ -2621,13 +2688,13 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -2668,85 +2735,85 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="J13" t="n">
-        <v>79.8</v>
+        <v>79.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L13" t="n">
         <v>7.4</v>
       </c>
       <c r="M13" t="n">
+        <v>20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="O13" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="R13" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="U13" t="n">
         <v>20.4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="O13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="R13" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="S13" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="T13" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="U13" t="n">
-        <v>20.7</v>
       </c>
       <c r="V13" t="n">
         <v>16.4</v>
       </c>
       <c r="W13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X13" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="AA13" t="n">
         <v>22.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,16 +2825,16 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI13" t="n">
         <v>22</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
@@ -2776,43 +2843,43 @@
         <v>19</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR13" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU13" t="n">
         <v>21</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -2850,100 +2917,100 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.706</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="J14" t="n">
         <v>82.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.475</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="M14" t="n">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O14" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="P14" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.707</v>
+        <v>0.702</v>
       </c>
       <c r="R14" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S14" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U14" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="V14" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W14" t="n">
         <v>8.4</v>
       </c>
       <c r="X14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Y14" t="n">
         <v>3.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AA14" t="n">
         <v>24.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.4</v>
+        <v>106.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
         <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
         <v>16</v>
@@ -2952,10 +3019,10 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AM14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN14" t="n">
         <v>18</v>
@@ -2964,10 +3031,10 @@
         <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
         <v>14</v>
@@ -2976,19 +3043,19 @@
         <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW14" t="n">
         <v>10</v>
       </c>
       <c r="AX14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
         <v>4</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -3032,61 +3099,61 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.529</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J15" t="n">
         <v>86.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L15" t="n">
         <v>10.6</v>
       </c>
       <c r="M15" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.409</v>
+        <v>0.412</v>
       </c>
       <c r="O15" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="P15" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.725</v>
+        <v>0.721</v>
       </c>
       <c r="R15" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S15" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T15" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="U15" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="V15" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
         <v>6.8</v>
@@ -3095,37 +3162,37 @@
         <v>6.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
         <v>21.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.1</v>
+        <v>100.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-1.9</v>
+        <v>-1.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
         <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>3</v>
@@ -3152,19 +3219,19 @@
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU15" t="n">
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>27</v>
@@ -3173,7 +3240,7 @@
         <v>4</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
         <v>20</v>
@@ -3185,7 +3252,7 @@
         <v>14</v>
       </c>
       <c r="BC15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3301,7 +3368,7 @@
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>7</v>
@@ -3313,7 +3380,7 @@
         <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
         <v>21</v>
@@ -3358,7 +3425,7 @@
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
         <v>21</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0.824</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J17" t="n">
-        <v>74.7</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.513</v>
+        <v>0.512</v>
       </c>
       <c r="L17" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.418</v>
+        <v>0.416</v>
       </c>
       <c r="O17" t="n">
         <v>19.3</v>
@@ -3435,61 +3502,61 @@
         <v>25.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R17" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="S17" t="n">
         <v>29.7</v>
       </c>
       <c r="T17" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="U17" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="V17" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W17" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Z17" t="n">
         <v>20.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.5</v>
+        <v>104.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
       </c>
       <c r="AG17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH17" t="n">
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3501,7 +3568,7 @@
         <v>8</v>
       </c>
       <c r="AM17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN17" t="n">
         <v>2</v>
@@ -3510,7 +3577,7 @@
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3519,34 +3586,34 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW17" t="n">
         <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>9</v>
       </c>
       <c r="BB17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>-9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH18" t="n">
         <v>7</v>
@@ -3683,10 +3750,10 @@
         <v>16</v>
       </c>
       <c r="AM18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3698,7 +3765,7 @@
         <v>8</v>
       </c>
       <c r="AR18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS18" t="n">
         <v>27</v>
@@ -3707,7 +3774,7 @@
         <v>29</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>25</v>
@@ -3716,10 +3783,10 @@
         <v>22</v>
       </c>
       <c r="AX18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ18" t="n">
         <v>14</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -3760,37 +3827,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>0.474</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J19" t="n">
-        <v>89.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="L19" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.328</v>
+        <v>0.329</v>
       </c>
       <c r="O19" t="n">
         <v>21.1</v>
@@ -3799,58 +3866,58 @@
         <v>26.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.805</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R19" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S19" t="n">
         <v>32.3</v>
       </c>
       <c r="T19" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U19" t="n">
         <v>23.3</v>
       </c>
       <c r="V19" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W19" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X19" t="n">
         <v>3.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="AA19" t="n">
         <v>22.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.9</v>
+        <v>106.1</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
         <v>8</v>
@@ -3859,16 +3926,16 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
         <v>13</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3883,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>7</v>
@@ -3895,13 +3962,13 @@
         <v>7</v>
       </c>
       <c r="AW19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
         <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
         <v>2</v>
@@ -3913,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="BC19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -3942,94 +4009,94 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.467</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J20" t="n">
-        <v>85.40000000000001</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>0.407</v>
+        <v>0.4</v>
       </c>
       <c r="O20" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P20" t="n">
         <v>22.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="R20" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="S20" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="T20" t="n">
-        <v>41.8</v>
+        <v>42.5</v>
       </c>
       <c r="U20" t="n">
         <v>22.6</v>
       </c>
       <c r="V20" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X20" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AB20" t="n">
         <v>102.1</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AF20" t="n">
         <v>9</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4038,43 +4105,43 @@
         <v>3</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>23</v>
       </c>
       <c r="AM20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN20" t="n">
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
         <v>15</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS20" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
         <v>12</v>
       </c>
       <c r="AV20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
         <v>2</v>
@@ -4083,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
         <v>22</v>
@@ -4095,7 +4162,7 @@
         <v>11</v>
       </c>
       <c r="BC20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -4124,70 +4191,70 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>0.188</v>
+        <v>0.2</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J21" t="n">
-        <v>84.40000000000001</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.421</v>
+        <v>0.419</v>
       </c>
       <c r="L21" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="M21" t="n">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.322</v>
+        <v>0.317</v>
       </c>
       <c r="O21" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="P21" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.766</v>
+        <v>0.758</v>
       </c>
       <c r="R21" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S21" t="n">
         <v>29.1</v>
       </c>
       <c r="T21" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U21" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="V21" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="W21" t="n">
         <v>7.9</v>
       </c>
       <c r="X21" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Z21" t="n">
         <v>23.3</v>
@@ -4196,40 +4263,40 @@
         <v>18.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.3</v>
+        <v>-6.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
       </c>
       <c r="AF21" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
         <v>28</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
         <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AM21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN21" t="n">
         <v>27</v>
@@ -4241,40 +4308,40 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
         <v>12</v>
       </c>
       <c r="AS21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT21" t="n">
         <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY21" t="n">
         <v>13</v>
       </c>
-      <c r="AY21" t="n">
-        <v>10</v>
-      </c>
       <c r="AZ21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA21" t="n">
         <v>27</v>
       </c>
       <c r="BB21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -4306,88 +4373,88 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>0.786</v>
       </c>
       <c r="H22" t="n">
         <v>48.7</v>
       </c>
       <c r="I22" t="n">
-        <v>37.8</v>
+        <v>37</v>
       </c>
       <c r="J22" t="n">
-        <v>82.8</v>
+        <v>82.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.457</v>
+        <v>0.448</v>
       </c>
       <c r="L22" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>18.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.329</v>
+        <v>0.318</v>
       </c>
       <c r="O22" t="n">
-        <v>22.3</v>
+        <v>23.5</v>
       </c>
       <c r="P22" t="n">
-        <v>27.7</v>
+        <v>29</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R22" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="S22" t="n">
         <v>35.9</v>
       </c>
       <c r="T22" t="n">
-        <v>47.4</v>
+        <v>47.7</v>
       </c>
       <c r="U22" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="V22" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W22" t="n">
         <v>8.1</v>
       </c>
       <c r="X22" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="Z22" t="n">
         <v>21.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.1</v>
+        <v>103.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
@@ -4399,67 +4466,67 @@
         <v>6</v>
       </c>
       <c r="AI22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
       </c>
       <c r="AK22" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM22" t="n">
         <v>23</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP22" t="n">
         <v>2</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>4</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
         <v>13</v>
       </c>
       <c r="AX22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
         <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB22" t="n">
         <v>8</v>
       </c>
       <c r="BC22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -4566,19 +4633,19 @@
         <v>-1.6</v>
       </c>
       <c r="AD23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE23" t="n">
         <v>21</v>
       </c>
-      <c r="AE23" t="n">
-        <v>22</v>
-      </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
         <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
         <v>12</v>
@@ -4590,13 +4657,13 @@
         <v>8</v>
       </c>
       <c r="AL23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AM23" t="n">
         <v>18</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO23" t="n">
         <v>24</v>
@@ -4614,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU23" t="n">
         <v>17</v>
@@ -4626,10 +4693,10 @@
         <v>17</v>
       </c>
       <c r="AX23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ23" t="n">
         <v>10</v>
@@ -4641,7 +4708,7 @@
         <v>15</v>
       </c>
       <c r="BC23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -4670,19 +4737,19 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>0.333</v>
+        <v>0.353</v>
       </c>
       <c r="H24" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I24" t="n">
         <v>39.6</v>
@@ -4691,67 +4758,67 @@
         <v>88.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L24" t="n">
         <v>7.3</v>
       </c>
       <c r="M24" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="O24" t="n">
         <v>16.6</v>
       </c>
       <c r="P24" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.702</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R24" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="S24" t="n">
         <v>33.9</v>
       </c>
       <c r="T24" t="n">
-        <v>45.7</v>
+        <v>45.9</v>
       </c>
       <c r="U24" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V24" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="W24" t="n">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y24" t="n">
         <v>7.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>103</v>
+        <v>103.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-7.1</v>
+        <v>-6.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF24" t="n">
         <v>24</v>
@@ -4760,7 +4827,7 @@
         <v>24</v>
       </c>
       <c r="AH24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI24" t="n">
         <v>2</v>
@@ -4769,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL24" t="n">
         <v>19</v>
@@ -4778,34 +4845,34 @@
         <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO24" t="n">
         <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>29</v>
       </c>
       <c r="AW24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX24" t="n">
         <v>14</v>
@@ -4814,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>19</v>
@@ -4823,7 +4890,7 @@
         <v>9</v>
       </c>
       <c r="BC24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -4930,22 +4997,22 @@
         <v>2</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
         <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ25" t="n">
         <v>20</v>
@@ -4957,10 +5024,10 @@
         <v>5</v>
       </c>
       <c r="AM25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO25" t="n">
         <v>17</v>
@@ -4972,25 +5039,25 @@
         <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS25" t="n">
         <v>19</v>
       </c>
       <c r="AT25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU25" t="n">
         <v>26</v>
       </c>
       <c r="AV25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>3</v>
@@ -5005,7 +5072,7 @@
         <v>13</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0.824</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J26" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L26" t="n">
         <v>9.800000000000001</v>
@@ -5064,40 +5131,40 @@
         <v>23.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.414</v>
+        <v>0.415</v>
       </c>
       <c r="O26" t="n">
-        <v>17.5</v>
+        <v>16.8</v>
       </c>
       <c r="P26" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.799</v>
+        <v>0.794</v>
       </c>
       <c r="R26" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S26" t="n">
-        <v>32.4</v>
+        <v>32.1</v>
       </c>
       <c r="T26" t="n">
-        <v>44.9</v>
+        <v>44.5</v>
       </c>
       <c r="U26" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="V26" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W26" t="n">
         <v>6.1</v>
       </c>
       <c r="X26" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Z26" t="n">
         <v>19.1</v>
@@ -5106,34 +5173,34 @@
         <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>104.6</v>
+        <v>104</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF26" t="n">
         <v>2</v>
       </c>
       <c r="AG26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>7</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>4</v>
@@ -5145,25 +5212,25 @@
         <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV26" t="n">
         <v>4</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
@@ -5184,10 +5251,10 @@
         <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -5216,91 +5283,91 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>0.267</v>
+        <v>0.286</v>
       </c>
       <c r="H27" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.3</v>
+        <v>36</v>
       </c>
       <c r="J27" t="n">
-        <v>83.59999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.434</v>
+        <v>0.428</v>
       </c>
       <c r="L27" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.331</v>
+        <v>0.322</v>
       </c>
       <c r="O27" t="n">
-        <v>17.4</v>
+        <v>16.9</v>
       </c>
       <c r="P27" t="n">
-        <v>22.3</v>
+        <v>21.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.779</v>
+        <v>0.772</v>
       </c>
       <c r="R27" t="n">
         <v>10.8</v>
       </c>
       <c r="S27" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T27" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U27" t="n">
         <v>20.9</v>
       </c>
       <c r="V27" t="n">
-        <v>13.8</v>
+        <v>13.1</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X27" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Y27" t="n">
         <v>6.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>97.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
@@ -5309,31 +5376,31 @@
         <v>11</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
         <v>20</v>
       </c>
       <c r="AM27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR27" t="n">
         <v>15</v>
@@ -5342,22 +5409,22 @@
         <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU27" t="n">
         <v>20</v>
       </c>
       <c r="AV27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX27" t="n">
         <v>30</v>
       </c>
       <c r="AY27" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5366,7 +5433,7 @@
         <v>12</v>
       </c>
       <c r="BB27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>10.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5503,7 +5570,7 @@
         <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN28" t="n">
         <v>6</v>
@@ -5524,22 +5591,22 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW28" t="n">
         <v>11</v>
       </c>
       <c r="AX28" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -5580,37 +5647,37 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
         <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" t="n">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I29" t="n">
         <v>34.8</v>
       </c>
       <c r="J29" t="n">
-        <v>82.90000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.42</v>
+        <v>0.421</v>
       </c>
       <c r="L29" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M29" t="n">
         <v>21.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O29" t="n">
         <v>19.9</v>
@@ -5622,31 +5689,31 @@
         <v>0.763</v>
       </c>
       <c r="R29" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U29" t="n">
         <v>17.4</v>
       </c>
       <c r="V29" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W29" t="n">
         <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="AA29" t="n">
         <v>23.1</v>
@@ -5655,19 +5722,19 @@
         <v>96.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE29" t="n">
         <v>21</v>
       </c>
-      <c r="AE29" t="n">
-        <v>22</v>
-      </c>
       <c r="AF29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>3</v>
@@ -5679,13 +5746,13 @@
         <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
         <v>18</v>
       </c>
       <c r="AM29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN29" t="n">
         <v>19</v>
@@ -5697,10 +5764,10 @@
         <v>7</v>
       </c>
       <c r="AQ29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS29" t="n">
         <v>22</v>
@@ -5712,7 +5779,7 @@
         <v>30</v>
       </c>
       <c r="AV29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
@@ -5727,13 +5794,13 @@
         <v>27</v>
       </c>
       <c r="BA29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>28</v>
@@ -5852,7 +5919,7 @@
         <v>30</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
         <v>28</v>
@@ -5864,7 +5931,7 @@
         <v>25</v>
       </c>
       <c r="AL30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM30" t="n">
         <v>25</v>
@@ -5873,7 +5940,7 @@
         <v>28</v>
       </c>
       <c r="AO30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP30" t="n">
         <v>14</v>
@@ -5891,19 +5958,19 @@
         <v>27</v>
       </c>
       <c r="AU30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV30" t="n">
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
@@ -6022,25 +6089,25 @@
         <v>-1.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>18</v>
@@ -6064,7 +6131,7 @@
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
         <v>21</v>
@@ -6079,10 +6146,10 @@
         <v>17</v>
       </c>
       <c r="AW31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
@@ -6094,7 +6161,7 @@
         <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-1-2013-14</t>
+          <t>2013-12-01</t>
         </is>
       </c>
     </row>
